--- a/results/mp/tinybert/corona/confidence/84/stop-words-topk-masking-0.5/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/84/stop-words-topk-masking-0.5/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="93">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,241 +43,253 @@
     <t>crude</t>
   </si>
   <si>
+    <t>warning</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>forced</t>
+  </si>
+  <si>
+    <t>war</t>
+  </si>
+  <si>
+    <t>collapse</t>
+  </si>
+  <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>died</t>
-  </si>
-  <si>
-    <t>forced</t>
-  </si>
-  <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>war</t>
+    <t>shame</t>
   </si>
   <si>
     <t>shit</t>
   </si>
   <si>
-    <t>recession</t>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>isolation</t>
   </si>
   <si>
     <t>emergency</t>
   </si>
   <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>fears</t>
-  </si>
-  <si>
     <t>shortage</t>
   </si>
   <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>risk</t>
+  </si>
+  <si>
+    <t>fight</t>
+  </si>
+  <si>
+    <t>stop</t>
+  </si>
+  <si>
     <t>empty</t>
   </si>
   <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>risk</t>
-  </si>
-  <si>
-    <t>stop</t>
-  </si>
-  <si>
-    <t>fight</t>
-  </si>
-  <si>
     <t>demand</t>
   </si>
   <si>
+    <t>corona</t>
+  </si>
+  <si>
     <t>co</t>
   </si>
   <si>
     <t>negative</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>best</t>
+    <t>great</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>special</t>
   </si>
   <si>
     <t>happy</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
     <t>heroes</t>
   </si>
   <si>
+    <t>positive</t>
+  </si>
+  <si>
     <t>thank</t>
   </si>
   <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
     <t>free</t>
   </si>
   <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
     <t>good</t>
   </si>
   <si>
-    <t>support</t>
+    <t>better</t>
   </si>
   <si>
     <t>nice</t>
   </si>
   <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>energy</t>
+  </si>
+  <si>
     <t>relief</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>join</t>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>increase</t>
   </si>
   <si>
     <t>hope</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>energy</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
     <t>give</t>
   </si>
   <si>
-    <t>sure</t>
-  </si>
-  <si>
     <t>increased</t>
   </si>
   <si>
-    <t>health</t>
+    <t>online</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>essential</t>
   </si>
   <si>
     <t>retail</t>
   </si>
   <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>essential</t>
+    <t>new</t>
+  </si>
+  <si>
+    <t>home</t>
   </si>
   <si>
     <t>local</t>
   </si>
   <si>
-    <t>home</t>
+    <t>today</t>
   </si>
   <si>
     <t>store</t>
   </si>
   <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>new</t>
+    <t>grocery</t>
   </si>
   <si>
     <t>stock</t>
   </si>
   <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>us</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
     <t>san</t>
   </si>
   <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>us</t>
-  </si>
-  <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>social</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>supermarket</t>
+    <t>people</t>
   </si>
   <si>
     <t>toilet</t>
   </si>
   <si>
     <t>food</t>
-  </si>
-  <si>
-    <t>corona</t>
   </si>
   <si>
     <t>prices</t>
@@ -638,7 +650,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q62"/>
+  <dimension ref="A1:Q64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -646,10 +658,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -707,13 +719,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9411764705882353</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="C3">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D3">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -725,19 +737,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="K3">
-        <v>0.9696969696969697</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L3">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="M3">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -749,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -757,13 +769,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8333333333333334</v>
+        <v>0.8</v>
       </c>
       <c r="C4">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D4">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -775,10 +787,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="K4">
         <v>0.9322033898305084</v>
@@ -807,13 +819,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7397260273972602</v>
+        <v>0.7465753424657534</v>
       </c>
       <c r="C5">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D5">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -825,19 +837,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="K5">
-        <v>0.9230769230769231</v>
+        <v>0.8787878787878788</v>
       </c>
       <c r="L5">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="M5">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -849,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -857,13 +869,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7307692307692307</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="C6">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D6">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -875,19 +887,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="K6">
-        <v>0.9130434782608695</v>
+        <v>0.875</v>
       </c>
       <c r="L6">
-        <v>42</v>
+        <v>98</v>
       </c>
       <c r="M6">
-        <v>42</v>
+        <v>98</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -899,7 +911,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -907,13 +919,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.6896551724137931</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C7">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D7">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -925,19 +937,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="K7">
-        <v>0.8536585365853658</v>
+        <v>0.8658536585365854</v>
       </c>
       <c r="L7">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M7">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -949,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -957,13 +969,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.6333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C8">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D8">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -975,19 +987,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K8">
-        <v>0.8482142857142857</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="L8">
-        <v>95</v>
+        <v>31</v>
       </c>
       <c r="M8">
-        <v>95</v>
+        <v>31</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -999,7 +1011,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1007,7 +1019,7 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.631578947368421</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C9">
         <v>24</v>
@@ -1025,19 +1037,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K9">
-        <v>0.8297872340425532</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="L9">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="M9">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1049,7 +1061,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1057,7 +1069,7 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6153846153846154</v>
+        <v>0.6486486486486487</v>
       </c>
       <c r="C10">
         <v>24</v>
@@ -1075,19 +1087,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="K10">
-        <v>0.828125</v>
+        <v>0.8297872340425532</v>
       </c>
       <c r="L10">
-        <v>106</v>
+        <v>39</v>
       </c>
       <c r="M10">
-        <v>106</v>
+        <v>39</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1099,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>22</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1107,13 +1119,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6129032258064516</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="C11">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D11">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1125,19 +1137,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="K11">
-        <v>0.8166666666666667</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="L11">
-        <v>98</v>
+        <v>48</v>
       </c>
       <c r="M11">
-        <v>98</v>
+        <v>48</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1149,7 +1161,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1157,13 +1169,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.4533333333333333</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="C12">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="D12">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1175,19 +1187,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="K12">
-        <v>0.7777777777777778</v>
+        <v>0.8046875</v>
       </c>
       <c r="L12">
-        <v>28</v>
+        <v>103</v>
       </c>
       <c r="M12">
-        <v>28</v>
+        <v>103</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1199,7 +1211,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1207,13 +1219,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.437984496124031</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="C13">
-        <v>226</v>
+        <v>24</v>
       </c>
       <c r="D13">
-        <v>226</v>
+        <v>24</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1225,19 +1237,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>290</v>
+        <v>27</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="K13">
-        <v>0.7676056338028169</v>
+        <v>0.803921568627451</v>
       </c>
       <c r="L13">
-        <v>109</v>
+        <v>41</v>
       </c>
       <c r="M13">
-        <v>109</v>
+        <v>41</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1249,7 +1261,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>33</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1257,13 +1269,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.436241610738255</v>
+        <v>0.4697986577181208</v>
       </c>
       <c r="C14">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D14">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1275,19 +1287,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="K14">
-        <v>0.7647058823529411</v>
+        <v>0.8028169014084507</v>
       </c>
       <c r="L14">
-        <v>39</v>
+        <v>114</v>
       </c>
       <c r="M14">
-        <v>39</v>
+        <v>114</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1299,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1307,49 +1319,49 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.4313725490196079</v>
+        <v>0.4573643410852713</v>
       </c>
       <c r="C15">
+        <v>236</v>
+      </c>
+      <c r="D15">
+        <v>236</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>280</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K15">
+        <v>0.7924528301886793</v>
+      </c>
+      <c r="L15">
+        <v>84</v>
+      </c>
+      <c r="M15">
+        <v>84</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q15">
         <v>22</v>
-      </c>
-      <c r="D15">
-        <v>22</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>29</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K15">
-        <v>0.7586206896551724</v>
-      </c>
-      <c r="L15">
-        <v>44</v>
-      </c>
-      <c r="M15">
-        <v>44</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1357,13 +1369,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.3728813559322034</v>
+        <v>0.4509803921568628</v>
       </c>
       <c r="C16">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D16">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1375,19 +1387,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K16">
-        <v>0.75</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="L16">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="M16">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1399,7 +1411,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1407,7 +1419,7 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.3333333333333333</v>
+        <v>0.4</v>
       </c>
       <c r="C17">
         <v>30</v>
@@ -1425,19 +1437,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K17">
-        <v>0.7452830188679245</v>
+        <v>0.75</v>
       </c>
       <c r="L17">
-        <v>79</v>
+        <v>120</v>
       </c>
       <c r="M17">
-        <v>79</v>
+        <v>120</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1449,7 +1461,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>27</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1457,13 +1469,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.3333333333333333</v>
+        <v>0.3898305084745763</v>
       </c>
       <c r="C18">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="D18">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1475,19 +1487,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>126</v>
+        <v>36</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K18">
-        <v>0.7407407407407407</v>
+        <v>0.746031746031746</v>
       </c>
       <c r="L18">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="M18">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1499,7 +1511,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1507,13 +1519,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.3116883116883117</v>
+        <v>0.3756613756613756</v>
       </c>
       <c r="C19">
-        <v>24</v>
+        <v>71</v>
       </c>
       <c r="D19">
-        <v>24</v>
+        <v>71</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1525,19 +1537,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>53</v>
+        <v>118</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K19">
-        <v>0.7</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="L19">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="M19">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1549,7 +1561,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1557,13 +1569,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.2777777777777778</v>
+        <v>0.3116883116883117</v>
       </c>
       <c r="C20">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="D20">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1575,19 +1587,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>182</v>
+        <v>53</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K20">
-        <v>0.6984126984126984</v>
+        <v>0.6914893617021277</v>
       </c>
       <c r="L20">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="M20">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1599,7 +1611,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1607,13 +1619,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.2375</v>
+        <v>0.2875</v>
       </c>
       <c r="C21">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D21">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1625,19 +1637,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="K21">
-        <v>0.6808510638297872</v>
+        <v>0.6475195822454308</v>
       </c>
       <c r="L21">
-        <v>64</v>
+        <v>248</v>
       </c>
       <c r="M21">
-        <v>64</v>
+        <v>248</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1649,7 +1661,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>30</v>
+        <v>135</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1657,13 +1669,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.1367292225201072</v>
+        <v>0.25</v>
       </c>
       <c r="C22">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="D22">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1675,19 +1687,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>322</v>
+        <v>189</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="K22">
-        <v>0.6736292428198434</v>
+        <v>0.6458333333333334</v>
       </c>
       <c r="L22">
-        <v>258</v>
+        <v>31</v>
       </c>
       <c r="M22">
-        <v>258</v>
+        <v>31</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1699,7 +1711,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>125</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1707,89 +1719,137 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.008698561391769822</v>
+        <v>0.2444444444444444</v>
       </c>
       <c r="C23">
+        <v>22</v>
+      </c>
+      <c r="D23">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23" t="b">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>68</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K23">
+        <v>0.6058823529411764</v>
+      </c>
+      <c r="L23">
+        <v>206</v>
+      </c>
+      <c r="M23">
+        <v>206</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="A24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24">
+        <v>0.1827956989247312</v>
+      </c>
+      <c r="C24">
+        <v>68</v>
+      </c>
+      <c r="D24">
+        <v>69</v>
+      </c>
+      <c r="E24">
+        <v>0.01</v>
+      </c>
+      <c r="F24">
+        <v>0.99</v>
+      </c>
+      <c r="G24" t="b">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>304</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K24">
+        <v>0.5842696629213483</v>
+      </c>
+      <c r="L24">
+        <v>52</v>
+      </c>
+      <c r="M24">
+        <v>52</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="A25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25">
+        <v>0.008341353865896696</v>
+      </c>
+      <c r="C25">
         <v>26</v>
       </c>
-      <c r="D23">
-        <v>144</v>
-      </c>
-      <c r="E23">
-        <v>0.82</v>
-      </c>
-      <c r="F23">
-        <v>0.18</v>
-      </c>
-      <c r="G23" t="b">
-        <v>1</v>
-      </c>
-      <c r="H23">
-        <v>2963</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K23">
-        <v>0.6511627906976745</v>
-      </c>
-      <c r="L23">
-        <v>28</v>
-      </c>
-      <c r="M23">
-        <v>28</v>
-      </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
-      <c r="J24" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K24">
-        <v>0.6</v>
-      </c>
-      <c r="L24">
-        <v>39</v>
-      </c>
-      <c r="M24">
-        <v>39</v>
-      </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="D25">
+        <v>110</v>
+      </c>
+      <c r="E25">
+        <v>0.76</v>
+      </c>
+      <c r="F25">
+        <v>0.24</v>
+      </c>
+      <c r="G25" t="b">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>3091</v>
+      </c>
       <c r="J25" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K25">
-        <v>0.5970588235294118</v>
+        <v>0.5813953488372093</v>
       </c>
       <c r="L25">
-        <v>203</v>
+        <v>25</v>
       </c>
       <c r="M25">
-        <v>203</v>
+        <v>25</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1801,21 +1861,45 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>137</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:17">
+      <c r="A26" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26">
+        <v>0.006369426751592357</v>
+      </c>
+      <c r="C26">
+        <v>19</v>
+      </c>
+      <c r="D26">
+        <v>143</v>
+      </c>
+      <c r="E26">
+        <v>0.87</v>
+      </c>
+      <c r="F26">
+        <v>0.13</v>
+      </c>
+      <c r="G26" t="b">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>2964</v>
+      </c>
       <c r="J26" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="K26">
-        <v>0.5830508474576271</v>
+        <v>0.5757575757575758</v>
       </c>
       <c r="L26">
-        <v>172</v>
+        <v>19</v>
       </c>
       <c r="M26">
-        <v>172</v>
+        <v>19</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1827,21 +1911,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>123</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="J27" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="K27">
-        <v>0.5730337078651685</v>
+        <v>0.5588235294117647</v>
       </c>
       <c r="L27">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="M27">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1853,12 +1937,12 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>38</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K28">
         <v>0.5555555555555556</v>
@@ -1884,16 +1968,16 @@
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="K29">
-        <v>0.5416666666666666</v>
+        <v>0.5525423728813559</v>
       </c>
       <c r="L29">
-        <v>26</v>
+        <v>163</v>
       </c>
       <c r="M29">
-        <v>26</v>
+        <v>163</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1905,21 +1989,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>22</v>
+        <v>132</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K30">
-        <v>0.5313807531380753</v>
+        <v>0.55</v>
       </c>
       <c r="L30">
-        <v>127</v>
+        <v>22</v>
       </c>
       <c r="M30">
-        <v>127</v>
+        <v>22</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1931,21 +2015,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>112</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="K31">
-        <v>0.5256410256410257</v>
+        <v>0.54</v>
       </c>
       <c r="L31">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="M31">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1957,12 +2041,12 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="K32">
         <v>0.525</v>
@@ -1988,16 +2072,16 @@
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="K33">
-        <v>0.4888888888888889</v>
+        <v>0.5230125523012552</v>
       </c>
       <c r="L33">
-        <v>22</v>
+        <v>125</v>
       </c>
       <c r="M33">
-        <v>22</v>
+        <v>125</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2009,21 +2093,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>23</v>
+        <v>114</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="K34">
-        <v>0.4520547945205479</v>
+        <v>0.5142857142857142</v>
       </c>
       <c r="L34">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="M34">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2035,21 +2119,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="K35">
-        <v>0.4428571428571428</v>
+        <v>0.4931506849315068</v>
       </c>
       <c r="L35">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="M35">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2061,21 +2145,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K36">
-        <v>0.3442622950819672</v>
+        <v>0.4888888888888889</v>
       </c>
       <c r="L36">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M36">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2087,21 +2171,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>40</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="K37">
-        <v>0.34375</v>
+        <v>0.453125</v>
       </c>
       <c r="L37">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="M37">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2113,21 +2197,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="K38">
-        <v>0.3194444444444444</v>
+        <v>0.4102564102564102</v>
       </c>
       <c r="L38">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="M38">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2139,73 +2223,73 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K39">
-        <v>0.2307692307692308</v>
+        <v>0.4</v>
       </c>
       <c r="L39">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M39">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="N39">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O39">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q39">
-        <v>100</v>
+        <v>39</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="K40">
-        <v>0.189873417721519</v>
+        <v>0.3442622950819672</v>
       </c>
       <c r="L40">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="M40">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="N40">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O40">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q40">
-        <v>128</v>
+        <v>40</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="K41">
-        <v>0.1875</v>
+        <v>0.3194444444444444</v>
       </c>
       <c r="L41">
-        <v>78</v>
+        <v>23</v>
       </c>
       <c r="M41">
-        <v>78</v>
+        <v>23</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2217,73 +2301,73 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>338</v>
+        <v>49</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K42">
-        <v>0.1770334928229665</v>
+        <v>0.2014388489208633</v>
       </c>
       <c r="L42">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="M42">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="N42">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O42">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q42">
-        <v>344</v>
+        <v>333</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K43">
+        <v>0.1686746987951807</v>
+      </c>
+      <c r="L43">
         <v>70</v>
       </c>
-      <c r="K43">
-        <v>0.1732283464566929</v>
-      </c>
-      <c r="L43">
-        <v>22</v>
-      </c>
       <c r="M43">
-        <v>22</v>
+        <v>71</v>
       </c>
       <c r="N43">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O43">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q43">
-        <v>105</v>
+        <v>345</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="K44">
-        <v>0.147239263803681</v>
+        <v>0.1653543307086614</v>
       </c>
       <c r="L44">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="M44">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2295,21 +2379,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>139</v>
+        <v>106</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="K45">
-        <v>0.1348837209302326</v>
+        <v>0.1509433962264151</v>
       </c>
       <c r="L45">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="M45">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2321,47 +2405,47 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>186</v>
+        <v>135</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="K46">
-        <v>0.121923937360179</v>
+        <v>0.1355140186915888</v>
       </c>
       <c r="L46">
-        <v>109</v>
+        <v>29</v>
       </c>
       <c r="M46">
-        <v>109</v>
+        <v>30</v>
       </c>
       <c r="N46">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O46">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q46">
-        <v>785</v>
+        <v>185</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="K47">
-        <v>0.1212121212121212</v>
+        <v>0.1302325581395349</v>
       </c>
       <c r="L47">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="M47">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2373,73 +2457,73 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>145</v>
+        <v>187</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="K48">
-        <v>0.1168224299065421</v>
+        <v>0.1296296296296296</v>
       </c>
       <c r="L48">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="M48">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="N48">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="O48">
-        <v>0.04000000000000004</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P48" t="b">
         <v>1</v>
       </c>
       <c r="Q48">
-        <v>189</v>
+        <v>141</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="K49">
-        <v>0.1049382716049383</v>
+        <v>0.1292517006802721</v>
       </c>
       <c r="L49">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="M49">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="N49">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O49">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q49">
-        <v>290</v>
+        <v>128</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="K50">
-        <v>0.09465020576131687</v>
+        <v>0.1152125279642058</v>
       </c>
       <c r="L50">
-        <v>46</v>
+        <v>103</v>
       </c>
       <c r="M50">
-        <v>46</v>
+        <v>103</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2451,73 +2535,73 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>440</v>
+        <v>791</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="K51">
-        <v>0.08950617283950617</v>
+        <v>0.1054384017758047</v>
       </c>
       <c r="L51">
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="M51">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="N51">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O51">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q51">
-        <v>590</v>
+        <v>806</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="K52">
-        <v>0.08777777777777777</v>
+        <v>0.1042944785276074</v>
       </c>
       <c r="L52">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="M52">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="N52">
-        <v>0.99</v>
+        <v>0.97</v>
       </c>
       <c r="O52">
-        <v>0.01000000000000001</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P52" t="b">
         <v>1</v>
       </c>
       <c r="Q52">
-        <v>821</v>
+        <v>292</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="K53">
-        <v>0.08614232209737828</v>
+        <v>0.09415584415584416</v>
       </c>
       <c r="L53">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="M53">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2529,47 +2613,47 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>244</v>
+        <v>279</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="K54">
-        <v>0.08441558441558442</v>
+        <v>0.08270676691729323</v>
       </c>
       <c r="L54">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="M54">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="N54">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O54">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q54">
-        <v>282</v>
+        <v>244</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="K55">
-        <v>0.08260869565217391</v>
+        <v>0.08073817762399077</v>
       </c>
       <c r="L55">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="M55">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2581,21 +2665,21 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>211</v>
+        <v>797</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="K56">
-        <v>0.07266760431317393</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="L56">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="M56">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="N56">
         <v>0.9399999999999999</v>
@@ -2607,163 +2691,215 @@
         <v>1</v>
       </c>
       <c r="Q56">
-        <v>1978</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="K57">
-        <v>0.07159353348729793</v>
+        <v>0.07109737248840804</v>
       </c>
       <c r="L57">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="M57">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="N57">
-        <v>0.98</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O57">
-        <v>0.02000000000000002</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P57" t="b">
         <v>1</v>
       </c>
       <c r="Q57">
-        <v>804</v>
+        <v>601</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="K58">
-        <v>0.03886925795053003</v>
+        <v>0.06185567010309279</v>
       </c>
       <c r="L58">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="M58">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="N58">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="O58">
-        <v>0.04000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P58" t="b">
         <v>1</v>
       </c>
       <c r="Q58">
-        <v>544</v>
+        <v>455</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K59">
+        <v>0.04081632653061224</v>
+      </c>
+      <c r="L59">
+        <v>22</v>
+      </c>
+      <c r="M59">
         <v>28</v>
       </c>
-      <c r="K59">
-        <v>0.0382992534891269</v>
-      </c>
-      <c r="L59">
-        <v>118</v>
-      </c>
-      <c r="M59">
-        <v>144</v>
-      </c>
       <c r="N59">
-        <v>0.82</v>
+        <v>0.79</v>
       </c>
       <c r="O59">
-        <v>0.18</v>
+        <v>0.21</v>
       </c>
       <c r="P59" t="b">
         <v>1</v>
       </c>
       <c r="Q59">
-        <v>2963</v>
+        <v>517</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>86</v>
+        <v>31</v>
       </c>
       <c r="K60">
-        <v>0.03742203742203742</v>
+        <v>0.04015544041450777</v>
       </c>
       <c r="L60">
-        <v>36</v>
+        <v>124</v>
       </c>
       <c r="M60">
-        <v>42</v>
+        <v>143</v>
       </c>
       <c r="N60">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="O60">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="P60" t="b">
         <v>1</v>
       </c>
       <c r="Q60">
-        <v>926</v>
+        <v>2964</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="K61">
-        <v>0.02293433867420672</v>
+        <v>0.03552397868561279</v>
       </c>
       <c r="L61">
-        <v>73</v>
+        <v>20</v>
       </c>
       <c r="M61">
-        <v>91</v>
+        <v>24</v>
       </c>
       <c r="N61">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="O61">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="P61" t="b">
         <v>1</v>
       </c>
       <c r="Q61">
-        <v>3110</v>
+        <v>543</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K62">
-        <v>0.02079722703639515</v>
+        <v>0.03329864724245578</v>
       </c>
       <c r="L62">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="M62">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="N62">
-        <v>0.77</v>
+        <v>0.82</v>
       </c>
       <c r="O62">
-        <v>0.23</v>
+        <v>0.18</v>
       </c>
       <c r="P62" t="b">
         <v>1</v>
       </c>
       <c r="Q62">
-        <v>1130</v>
+        <v>929</v>
+      </c>
+    </row>
+    <row r="63" spans="10:17">
+      <c r="J63" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K63">
+        <v>0.02645669291338583</v>
+      </c>
+      <c r="L63">
+        <v>84</v>
+      </c>
+      <c r="M63">
+        <v>110</v>
+      </c>
+      <c r="N63">
+        <v>0.76</v>
+      </c>
+      <c r="O63">
+        <v>0.24</v>
+      </c>
+      <c r="P63" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q63">
+        <v>3091</v>
+      </c>
+    </row>
+    <row r="64" spans="10:17">
+      <c r="J64" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K64">
+        <v>0.01904761904761905</v>
+      </c>
+      <c r="L64">
+        <v>22</v>
+      </c>
+      <c r="M64">
+        <v>28</v>
+      </c>
+      <c r="N64">
+        <v>0.79</v>
+      </c>
+      <c r="O64">
+        <v>0.21</v>
+      </c>
+      <c r="P64" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q64">
+        <v>1133</v>
       </c>
     </row>
   </sheetData>

--- a/results/mp/tinybert/corona/confidence/84/stop-words-topk-masking-0.5/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/84/stop-words-topk-masking-0.5/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="97">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,51 +46,54 @@
     <t>warning</t>
   </si>
   <si>
+    <t>fraud</t>
+  </si>
+  <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>fear</t>
+  </si>
+  <si>
+    <t>died</t>
+  </si>
+  <si>
     <t>crisis</t>
   </si>
   <si>
     <t>forced</t>
   </si>
   <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
     <t>war</t>
   </si>
   <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>fraud</t>
-  </si>
-  <si>
-    <t>shame</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>fuck</t>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>isolation</t>
+  </si>
+  <si>
+    <t>emergency</t>
+  </si>
+  <si>
+    <t>low</t>
   </si>
   <si>
     <t>fears</t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>isolation</t>
-  </si>
-  <si>
-    <t>emergency</t>
+    <t>sc</t>
   </si>
   <si>
     <t>shortage</t>
   </si>
   <si>
-    <t>sc</t>
-  </si>
-  <si>
     <t>risk</t>
   </si>
   <si>
@@ -106,184 +109,193 @@
     <t>demand</t>
   </si>
   <si>
+    <t>19</t>
+  </si>
+  <si>
     <t>corona</t>
   </si>
   <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>energy</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>available</t>
+  </si>
+  <si>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>want</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>social</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>us</t>
+  </si>
+  <si>
+    <t>san</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
     <t>co</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>energy</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>increased</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>today</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>us</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>san</t>
-  </si>
-  <si>
-    <t>people</t>
   </si>
   <si>
     <t>toilet</t>
@@ -650,7 +662,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q64"/>
+  <dimension ref="A1:Q67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -658,10 +670,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -719,13 +731,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8823529411764706</v>
+        <v>0.9411764705882353</v>
       </c>
       <c r="C3">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D3">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -737,19 +749,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
         <v>33</v>
       </c>
-      <c r="K3">
-        <v>0.9347826086956522</v>
-      </c>
-      <c r="L3">
-        <v>43</v>
-      </c>
       <c r="M3">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -761,7 +773,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -769,13 +781,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8</v>
+        <v>0.84</v>
       </c>
       <c r="C4">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D4">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -787,10 +799,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K4">
         <v>0.9322033898305084</v>
@@ -819,13 +831,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7465753424657534</v>
+        <v>0.75</v>
       </c>
       <c r="C5">
-        <v>218</v>
+        <v>27</v>
       </c>
       <c r="D5">
-        <v>218</v>
+        <v>27</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -837,19 +849,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>74</v>
+        <v>9</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K5">
-        <v>0.8787878787878788</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="L5">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="M5">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -869,13 +881,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7241379310344828</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="C6">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D6">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -890,16 +902,16 @@
         <v>8</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K6">
-        <v>0.875</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L6">
-        <v>98</v>
+        <v>24</v>
       </c>
       <c r="M6">
-        <v>98</v>
+        <v>24</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -911,7 +923,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -919,13 +931,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.6842105263157895</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="C7">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D7">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -937,19 +949,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K7">
-        <v>0.8658536585365854</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="L7">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="M7">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -961,7 +973,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -969,13 +981,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.6666666666666666</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="C8">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D8">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -987,19 +999,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K8">
-        <v>0.8611111111111112</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L8">
-        <v>31</v>
+        <v>97</v>
       </c>
       <c r="M8">
-        <v>31</v>
+        <v>97</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1011,7 +1023,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1019,13 +1031,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6666666666666666</v>
+        <v>0.708904109589041</v>
       </c>
       <c r="C9">
-        <v>24</v>
+        <v>207</v>
       </c>
       <c r="D9">
-        <v>24</v>
+        <v>207</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1037,19 +1049,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K9">
-        <v>0.8461538461538461</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="L9">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="M9">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1061,7 +1073,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1069,13 +1081,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6486486486486487</v>
+        <v>0.6551724137931034</v>
       </c>
       <c r="C10">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D10">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1087,19 +1099,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K10">
-        <v>0.8297872340425532</v>
+        <v>0.828125</v>
       </c>
       <c r="L10">
-        <v>39</v>
+        <v>106</v>
       </c>
       <c r="M10">
-        <v>39</v>
+        <v>106</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1111,7 +1123,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>8</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1119,49 +1131,49 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5384615384615384</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="C11">
+        <v>24</v>
+      </c>
+      <c r="D11">
+        <v>24</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>15</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K11">
+        <v>0.825</v>
+      </c>
+      <c r="L11">
+        <v>99</v>
+      </c>
+      <c r="M11">
+        <v>99</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q11">
         <v>21</v>
-      </c>
-      <c r="D11">
-        <v>21</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>18</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K11">
-        <v>0.8275862068965517</v>
-      </c>
-      <c r="L11">
-        <v>48</v>
-      </c>
-      <c r="M11">
-        <v>48</v>
-      </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1169,13 +1181,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5384615384615384</v>
+        <v>0.5897435897435898</v>
       </c>
       <c r="C12">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D12">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1187,19 +1199,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K12">
-        <v>0.8046875</v>
+        <v>0.8170731707317073</v>
       </c>
       <c r="L12">
-        <v>103</v>
+        <v>67</v>
       </c>
       <c r="M12">
-        <v>103</v>
+        <v>67</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1211,7 +1223,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1219,13 +1231,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.4705882352941176</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="C13">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D13">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1237,19 +1249,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K13">
-        <v>0.803921568627451</v>
+        <v>0.8169014084507042</v>
       </c>
       <c r="L13">
-        <v>41</v>
+        <v>116</v>
       </c>
       <c r="M13">
-        <v>41</v>
+        <v>116</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1261,7 +1273,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>10</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1269,13 +1281,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.4697986577181208</v>
+        <v>0.4554263565891473</v>
       </c>
       <c r="C14">
-        <v>70</v>
+        <v>235</v>
       </c>
       <c r="D14">
-        <v>70</v>
+        <v>235</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1287,19 +1299,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>79</v>
+        <v>281</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K14">
-        <v>0.8028169014084507</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="L14">
-        <v>114</v>
+        <v>45</v>
       </c>
       <c r="M14">
-        <v>114</v>
+        <v>45</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1311,7 +1323,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1319,13 +1331,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.4573643410852713</v>
+        <v>0.4313725490196079</v>
       </c>
       <c r="C15">
-        <v>236</v>
+        <v>22</v>
       </c>
       <c r="D15">
-        <v>236</v>
+        <v>22</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1337,19 +1349,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>280</v>
+        <v>29</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K15">
-        <v>0.7924528301886793</v>
+        <v>0.7735849056603774</v>
       </c>
       <c r="L15">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M15">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1361,7 +1373,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1369,13 +1381,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.4509803921568628</v>
+        <v>0.4266666666666667</v>
       </c>
       <c r="C16">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D16">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1387,19 +1399,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K16">
-        <v>0.7916666666666666</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="L16">
-        <v>95</v>
+        <v>39</v>
       </c>
       <c r="M16">
-        <v>95</v>
+        <v>39</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1411,7 +1423,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1419,13 +1431,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.4</v>
+        <v>0.3892617449664429</v>
       </c>
       <c r="C17">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="D17">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1437,19 +1449,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>45</v>
+        <v>91</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K17">
-        <v>0.75</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="L17">
-        <v>120</v>
+        <v>48</v>
       </c>
       <c r="M17">
-        <v>120</v>
+        <v>48</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1461,7 +1473,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>40</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1469,13 +1481,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.3898305084745763</v>
+        <v>0.3725490196078431</v>
       </c>
       <c r="C18">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D18">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1487,19 +1499,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K18">
-        <v>0.746031746031746</v>
+        <v>0.7446808510638298</v>
       </c>
       <c r="L18">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="M18">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1511,7 +1523,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1519,13 +1531,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.3756613756613756</v>
+        <v>0.3439153439153439</v>
       </c>
       <c r="C19">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D19">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1537,19 +1549,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K19">
-        <v>0.7407407407407407</v>
+        <v>0.7352941176470589</v>
       </c>
       <c r="L19">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="M19">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1561,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1569,13 +1581,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.3116883116883117</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="C20">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D20">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1587,19 +1599,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K20">
-        <v>0.6914893617021277</v>
+        <v>0.725</v>
       </c>
       <c r="L20">
-        <v>65</v>
+        <v>116</v>
       </c>
       <c r="M20">
-        <v>65</v>
+        <v>116</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1611,7 +1623,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>29</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1619,7 +1631,7 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.2875</v>
+        <v>0.2987012987012987</v>
       </c>
       <c r="C21">
         <v>23</v>
@@ -1637,19 +1649,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K21">
-        <v>0.6475195822454308</v>
+        <v>0.7</v>
       </c>
       <c r="L21">
-        <v>248</v>
+        <v>35</v>
       </c>
       <c r="M21">
-        <v>248</v>
+        <v>35</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1661,7 +1673,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>135</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1669,13 +1681,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.25</v>
+        <v>0.2875</v>
       </c>
       <c r="C22">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="D22">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1687,19 +1699,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>189</v>
+        <v>57</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K22">
-        <v>0.6458333333333334</v>
+        <v>0.6875</v>
       </c>
       <c r="L22">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M22">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1711,7 +1723,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1719,13 +1731,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.2444444444444444</v>
+        <v>0.2619047619047619</v>
       </c>
       <c r="C23">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="D23">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1737,19 +1749,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>68</v>
+        <v>186</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K23">
-        <v>0.6058823529411764</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L23">
-        <v>206</v>
+        <v>24</v>
       </c>
       <c r="M23">
-        <v>206</v>
+        <v>24</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1761,7 +1773,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>134</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1769,37 +1781,37 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.1827956989247312</v>
+        <v>0.2444444444444444</v>
       </c>
       <c r="C24">
+        <v>22</v>
+      </c>
+      <c r="D24">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24" t="b">
+        <v>0</v>
+      </c>
+      <c r="H24">
         <v>68</v>
       </c>
-      <c r="D24">
-        <v>69</v>
-      </c>
-      <c r="E24">
-        <v>0.01</v>
-      </c>
-      <c r="F24">
-        <v>0.99</v>
-      </c>
-      <c r="G24" t="b">
-        <v>1</v>
-      </c>
-      <c r="H24">
-        <v>304</v>
-      </c>
       <c r="J24" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K24">
-        <v>0.5842696629213483</v>
+        <v>0.6657963446475196</v>
       </c>
       <c r="L24">
-        <v>52</v>
+        <v>255</v>
       </c>
       <c r="M24">
-        <v>52</v>
+        <v>255</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1811,7 +1823,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>37</v>
+        <v>128</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1819,37 +1831,37 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.008341353865896696</v>
+        <v>0.1420911528150134</v>
       </c>
       <c r="C25">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="D25">
-        <v>110</v>
+        <v>53</v>
       </c>
       <c r="E25">
-        <v>0.76</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>0.24</v>
+        <v>1</v>
       </c>
       <c r="G25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25">
-        <v>3091</v>
+        <v>320</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K25">
-        <v>0.5813953488372093</v>
+        <v>0.6511627906976745</v>
       </c>
       <c r="L25">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="M25">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1861,7 +1873,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1869,37 +1881,37 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.006369426751592357</v>
+        <v>0.009654471544715448</v>
       </c>
       <c r="C26">
         <v>19</v>
       </c>
       <c r="D26">
-        <v>143</v>
+        <v>194</v>
       </c>
       <c r="E26">
-        <v>0.87</v>
+        <v>0.9</v>
       </c>
       <c r="F26">
-        <v>0.13</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G26" t="b">
         <v>1</v>
       </c>
       <c r="H26">
-        <v>2964</v>
+        <v>1949</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K26">
-        <v>0.5757575757575758</v>
+        <v>0.648936170212766</v>
       </c>
       <c r="L26">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="M26">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1911,21 +1923,45 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>14</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:17">
+      <c r="A27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27">
+        <v>0.006772009029345372</v>
+      </c>
+      <c r="C27">
+        <v>21</v>
+      </c>
+      <c r="D27">
+        <v>121</v>
+      </c>
+      <c r="E27">
+        <v>0.83</v>
+      </c>
+      <c r="F27">
+        <v>0.17</v>
+      </c>
+      <c r="G27" t="b">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>3080</v>
+      </c>
       <c r="J27" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K27">
-        <v>0.5588235294117647</v>
+        <v>0.6</v>
       </c>
       <c r="L27">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="M27">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1937,21 +1973,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K28">
-        <v>0.5555555555555556</v>
+        <v>0.5955056179775281</v>
       </c>
       <c r="L28">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="M28">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1963,21 +1999,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K29">
-        <v>0.5525423728813559</v>
+        <v>0.5911764705882353</v>
       </c>
       <c r="L29">
-        <v>163</v>
+        <v>201</v>
       </c>
       <c r="M29">
-        <v>163</v>
+        <v>201</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1989,21 +2025,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>132</v>
+        <v>139</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K30">
-        <v>0.55</v>
+        <v>0.5757575757575758</v>
       </c>
       <c r="L30">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="M30">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2015,21 +2051,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K31">
-        <v>0.54</v>
+        <v>0.5661016949152542</v>
       </c>
       <c r="L31">
-        <v>27</v>
+        <v>167</v>
       </c>
       <c r="M31">
-        <v>27</v>
+        <v>167</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2041,21 +2077,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>23</v>
+        <v>128</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K32">
-        <v>0.525</v>
+        <v>0.5355648535564853</v>
       </c>
       <c r="L32">
-        <v>21</v>
+        <v>128</v>
       </c>
       <c r="M32">
-        <v>21</v>
+        <v>128</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2067,21 +2103,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>19</v>
+        <v>111</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K33">
-        <v>0.5230125523012552</v>
+        <v>0.515625</v>
       </c>
       <c r="L33">
-        <v>125</v>
+        <v>33</v>
       </c>
       <c r="M33">
-        <v>125</v>
+        <v>33</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2093,21 +2129,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>114</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K34">
-        <v>0.5142857142857142</v>
+        <v>0.5</v>
       </c>
       <c r="L34">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="M34">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2119,12 +2155,12 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K35">
         <v>0.4931506849315068</v>
@@ -2150,16 +2186,16 @@
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K36">
-        <v>0.4888888888888889</v>
+        <v>0.4769230769230769</v>
       </c>
       <c r="L36">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="M36">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2171,21 +2207,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K37">
-        <v>0.453125</v>
+        <v>0.475</v>
       </c>
       <c r="L37">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="M37">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2197,21 +2233,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K38">
-        <v>0.4102564102564102</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="L38">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="M38">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2223,21 +2259,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>46</v>
+        <v>24</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K39">
-        <v>0.4</v>
+        <v>0.4098360655737705</v>
       </c>
       <c r="L39">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M39">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2249,21 +2285,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K40">
-        <v>0.3442622950819672</v>
+        <v>0.4042553191489361</v>
       </c>
       <c r="L40">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M40">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2275,15 +2311,15 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>40</v>
+        <v>28</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K41">
-        <v>0.3194444444444444</v>
+        <v>0.3285714285714286</v>
       </c>
       <c r="L41">
         <v>23</v>
@@ -2301,73 +2337,73 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K42">
-        <v>0.2014388489208633</v>
+        <v>0.3220338983050847</v>
       </c>
       <c r="L42">
-        <v>84</v>
+        <v>19</v>
       </c>
       <c r="M42">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="N42">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O42">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q42">
-        <v>333</v>
+        <v>40</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K43">
-        <v>0.1686746987951807</v>
+        <v>0.2916666666666667</v>
       </c>
       <c r="L43">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="M43">
-        <v>71</v>
+        <v>21</v>
       </c>
       <c r="N43">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O43">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q43">
-        <v>345</v>
+        <v>51</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K44">
-        <v>0.1653543307086614</v>
+        <v>0.2</v>
       </c>
       <c r="L44">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M44">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2379,21 +2415,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>106</v>
+        <v>76</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K45">
-        <v>0.1509433962264151</v>
+        <v>0.1813953488372093</v>
       </c>
       <c r="L45">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="M45">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2405,99 +2441,99 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>135</v>
+        <v>176</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K46">
-        <v>0.1355140186915888</v>
+        <v>0.1770334928229665</v>
       </c>
       <c r="L46">
-        <v>29</v>
+        <v>74</v>
       </c>
       <c r="M46">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="N46">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O46">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q46">
-        <v>185</v>
+        <v>344</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K47">
-        <v>0.1302325581395349</v>
+        <v>0.1737089201877934</v>
       </c>
       <c r="L47">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="M47">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="N47">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O47">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q47">
-        <v>187</v>
+        <v>176</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K48">
-        <v>0.1296296296296296</v>
+        <v>0.1705426356589147</v>
       </c>
       <c r="L48">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M48">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N48">
-        <v>0.95</v>
+        <v>0.92</v>
       </c>
       <c r="O48">
-        <v>0.05000000000000004</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P48" t="b">
         <v>1</v>
       </c>
       <c r="Q48">
-        <v>141</v>
+        <v>107</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K49">
-        <v>0.1292517006802721</v>
+        <v>0.1653543307086614</v>
       </c>
       <c r="L49">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M49">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2509,21 +2545,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>128</v>
+        <v>106</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K50">
-        <v>0.1152125279642058</v>
+        <v>0.1586538461538461</v>
       </c>
       <c r="L50">
-        <v>103</v>
+        <v>66</v>
       </c>
       <c r="M50">
-        <v>103</v>
+        <v>66</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2535,21 +2571,21 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>791</v>
+        <v>350</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K51">
-        <v>0.1054384017758047</v>
+        <v>0.1446540880503145</v>
       </c>
       <c r="L51">
-        <v>95</v>
+        <v>23</v>
       </c>
       <c r="M51">
-        <v>95</v>
+        <v>23</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2561,99 +2597,99 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>806</v>
+        <v>136</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K52">
-        <v>0.1042944785276074</v>
+        <v>0.1296296296296296</v>
       </c>
       <c r="L52">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="M52">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="N52">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="O52">
-        <v>0.03000000000000003</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P52" t="b">
         <v>1</v>
       </c>
       <c r="Q52">
-        <v>292</v>
+        <v>141</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K53">
-        <v>0.09415584415584416</v>
+        <v>0.1196319018404908</v>
       </c>
       <c r="L53">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="M53">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="N53">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O53">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q53">
-        <v>279</v>
+        <v>287</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K54">
-        <v>0.08270676691729323</v>
+        <v>0.1043478260869565</v>
       </c>
       <c r="L54">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M54">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N54">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O54">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q54">
-        <v>244</v>
+        <v>206</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K55">
-        <v>0.08073817762399077</v>
+        <v>0.1017897091722595</v>
       </c>
       <c r="L55">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="M55">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2665,47 +2701,47 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>797</v>
+        <v>803</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K56">
-        <v>0.07692307692307693</v>
+        <v>0.09877913429522753</v>
       </c>
       <c r="L56">
-        <v>164</v>
+        <v>89</v>
       </c>
       <c r="M56">
-        <v>175</v>
+        <v>89</v>
       </c>
       <c r="N56">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O56">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q56">
-        <v>1968</v>
+        <v>812</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K57">
-        <v>0.07109737248840804</v>
+        <v>0.09477124183006536</v>
       </c>
       <c r="L57">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="M57">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="N57">
         <v>0.9399999999999999</v>
@@ -2717,21 +2753,21 @@
         <v>1</v>
       </c>
       <c r="Q57">
-        <v>601</v>
+        <v>277</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K58">
-        <v>0.06185567010309279</v>
+        <v>0.08641975308641975</v>
       </c>
       <c r="L58">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="M58">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="N58">
         <v>0.97</v>
@@ -2743,33 +2779,33 @@
         <v>1</v>
       </c>
       <c r="Q58">
-        <v>455</v>
+        <v>592</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K59">
-        <v>0.04081632653061224</v>
+        <v>0.0830188679245283</v>
       </c>
       <c r="L59">
         <v>22</v>
       </c>
       <c r="M59">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="N59">
-        <v>0.79</v>
+        <v>0.92</v>
       </c>
       <c r="O59">
-        <v>0.21</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P59" t="b">
         <v>1</v>
       </c>
       <c r="Q59">
-        <v>517</v>
+        <v>243</v>
       </c>
     </row>
     <row r="60" spans="10:17">
@@ -2777,129 +2813,207 @@
         <v>31</v>
       </c>
       <c r="K60">
-        <v>0.04015544041450777</v>
+        <v>0.08239171374764595</v>
       </c>
       <c r="L60">
-        <v>124</v>
+        <v>175</v>
       </c>
       <c r="M60">
-        <v>143</v>
+        <v>194</v>
       </c>
       <c r="N60">
-        <v>0.87</v>
+        <v>0.9</v>
       </c>
       <c r="O60">
-        <v>0.13</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="P60" t="b">
         <v>1</v>
       </c>
       <c r="Q60">
-        <v>2964</v>
+        <v>1949</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K61">
-        <v>0.03552397868561279</v>
+        <v>0.07818930041152264</v>
       </c>
       <c r="L61">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="M61">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="N61">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="O61">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="P61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q61">
-        <v>543</v>
+        <v>448</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K62">
-        <v>0.03329864724245578</v>
+        <v>0.07398843930635839</v>
       </c>
       <c r="L62">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="M62">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="N62">
-        <v>0.82</v>
+        <v>0.97</v>
       </c>
       <c r="O62">
-        <v>0.18</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P62" t="b">
         <v>1</v>
       </c>
       <c r="Q62">
-        <v>929</v>
+        <v>801</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>30</v>
+        <v>93</v>
       </c>
       <c r="K63">
-        <v>0.02645669291338583</v>
+        <v>0.05339805825242718</v>
       </c>
       <c r="L63">
-        <v>84</v>
+        <v>165</v>
       </c>
       <c r="M63">
-        <v>110</v>
+        <v>182</v>
       </c>
       <c r="N63">
-        <v>0.76</v>
+        <v>0.91</v>
       </c>
       <c r="O63">
-        <v>0.24</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P63" t="b">
         <v>1</v>
       </c>
       <c r="Q63">
-        <v>3091</v>
+        <v>2925</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="K64">
-        <v>0.01904761904761905</v>
+        <v>0.04240282685512368</v>
       </c>
       <c r="L64">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M64">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="N64">
-        <v>0.79</v>
+        <v>0.96</v>
       </c>
       <c r="O64">
-        <v>0.21</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P64" t="b">
         <v>1</v>
       </c>
       <c r="Q64">
-        <v>1133</v>
+        <v>542</v>
+      </c>
+    </row>
+    <row r="65" spans="10:17">
+      <c r="J65" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K65">
+        <v>0.03634475597092419</v>
+      </c>
+      <c r="L65">
+        <v>35</v>
+      </c>
+      <c r="M65">
+        <v>40</v>
+      </c>
+      <c r="N65">
+        <v>0.88</v>
+      </c>
+      <c r="O65">
+        <v>0.12</v>
+      </c>
+      <c r="P65" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q65">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="66" spans="10:17">
+      <c r="J66" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K66">
+        <v>0.03144654088050314</v>
+      </c>
+      <c r="L66">
+        <v>100</v>
+      </c>
+      <c r="M66">
+        <v>121</v>
+      </c>
+      <c r="N66">
+        <v>0.83</v>
+      </c>
+      <c r="O66">
+        <v>0.17</v>
+      </c>
+      <c r="P66" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q66">
+        <v>3080</v>
+      </c>
+    </row>
+    <row r="67" spans="10:17">
+      <c r="J67" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="K67">
+        <v>0.02510822510822511</v>
+      </c>
+      <c r="L67">
+        <v>29</v>
+      </c>
+      <c r="M67">
+        <v>35</v>
+      </c>
+      <c r="N67">
+        <v>0.83</v>
+      </c>
+      <c r="O67">
+        <v>0.17</v>
+      </c>
+      <c r="P67" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q67">
+        <v>1126</v>
       </c>
     </row>
   </sheetData>
